--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251106_201538.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251106_201538.xlsx
@@ -4529,7 +4529,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
